--- a/tests/data/19880209/19880209_target.xlsx
+++ b/tests/data/19880209/19880209_target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfd3df2fe22ca4a1/Workspace/consolidate_csv_to_excel/tests/data/19880209/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABDACC104807D99B79E45BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0203FD28-1E84-4C95-85AF-DAE7140DA383}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC104807D99B79E45BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2453AF63-B0DA-44E6-A6F8-0724E112DC34}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="2445" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="target_1" sheetId="2" r:id="rId2"/>
     <sheet name="target_2" sheetId="3" r:id="rId3"/>
     <sheet name="target_3" sheetId="4" r:id="rId4"/>
+    <sheet name="no_csv" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -121,6 +122,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7F7F7F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -130,6 +136,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,4 +569,20 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51C8485-B1EF-46B3-BF3A-4A97BA445EE8}">
+  <sheetPr>
+    <tabColor rgb="FF7F7F7F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>